--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197182.9207407175</v>
+        <v>197518.4095239739</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12936495.09829997</v>
+        <v>12617883.90382514</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11255880.8018774</v>
+        <v>10943609.97017262</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6041024.713808585</v>
+        <v>6172299.913848449</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.15668158090607</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>254.489886823085</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="Y2" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="G2" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="H2" t="n">
-        <v>307.7994123985592</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>35.84715600543174</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +743,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>52.78076342756878</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>106.9706214097036</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>234.3984192270003</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -899,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>7.537471181140626</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>27.46801669177194</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -990,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>157.8079400398083</v>
+        <v>117.8669265374062</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>28.01490760909623</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.6884348933477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,70 +1138,70 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="E8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>343.646568403991</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.537471181140739</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>346.3391791168841</v>
-      </c>
-      <c r="W8" t="n">
-        <v>379.9226978561831</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,7 +1268,7 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>106.1331548337414</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>105.8596795890361</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -1297,16 +1299,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>54.68688746169137</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>18.86752261819808</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -1367,73 +1369,73 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>7.537471181140626</v>
+      </c>
+      <c r="V11" t="n">
+        <v>346.3391791168841</v>
+      </c>
+      <c r="W11" t="n">
+        <v>379.9226978561831</v>
+      </c>
+      <c r="X11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="C11" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>209.7183039501508</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>133.9282644538401</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>390.1527797502169</v>
@@ -1446,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>97.94819353697849</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>119.2878878475953</v>
@@ -1464,10 +1466,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>106.1331548337414</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
         <v>174.5627220424961</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.2339561811077</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>343.646568403991</v>
       </c>
       <c r="F14" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,10 +1688,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>39.87507815023435</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1698,10 +1700,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1737,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U15" t="n">
         <v>195.3773027531635</v>
@@ -1746,10 +1748,10 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>158.9438228138357</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
         <v>157.8079400398083</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>161.4266191589258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>117.7800054678746</v>
       </c>
       <c r="C17" t="n">
-        <v>7.537471181140739</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -1907,10 +1909,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>390.1527797502169</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464111</v>
+        <v>70.03974083464081</v>
       </c>
       <c r="I18" t="n">
         <v>20.54110546596223</v>
@@ -1974,13 +1976,13 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V18" t="n">
-        <v>52.78076342756878</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>89.00289165510048</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
@@ -2068,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2090,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>282.8053997497795</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>161.6543656986651</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>105.6240463898355</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>215.7942570968684</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2324,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2381,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>314.6463319409501</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2494,7 +2496,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>114.251188530999</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2533,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="26">
@@ -2561,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>263.5108105965465</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>383.5604440308334</v>
       </c>
     </row>
     <row r="27">
@@ -2697,7 +2699,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424958</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
         <v>115.1825854367171</v>
@@ -2764,10 +2766,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>90.77275666546139</v>
       </c>
       <c r="U28" t="n">
-        <v>235.5743815161251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2798,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>21.68984574261334</v>
+        <v>6.942372133982936</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2891,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I30" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>61.29526474944497</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2965,10 +2967,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.835513362789119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>213.8606499000598</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,10 +3040,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.9611084486381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>148.0772376304396</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -3247,7 +3249,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>164.5175082466435</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>46.09470047395167</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>46.09470047395124</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T36" t="n">
         <v>157.7484451748619</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>27.35334490128979</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3487,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3515,13 +3517,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.076502194043</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3602,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I39" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3479570160119</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>129.0638484442161</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3742,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>100.0791888769552</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>21.07201417857194</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>387.4601690373238</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>274.8934349164812</v>
       </c>
       <c r="G44" t="n">
-        <v>390.1527797502169</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4059,19 +4061,19 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>113.8370210126441</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
         <v>20.54110546596223</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T45" t="n">
         <v>157.7484451748619</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4198,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1524.401870510532</v>
+        <v>121.2694765021447</v>
       </c>
       <c r="C2" t="n">
-        <v>1130.308153591121</v>
+        <v>121.2694765021447</v>
       </c>
       <c r="D2" t="n">
-        <v>1130.308153591121</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E2" t="n">
-        <v>1130.308153591121</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F2" t="n">
-        <v>736.2144366717104</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G2" t="n">
-        <v>342.1207197522994</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
         <v>31.21222238001735</v>
@@ -4328,28 +4330,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M2" t="n">
-        <v>1133.803221358588</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="N2" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="O2" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P2" t="n">
-        <v>1520.054473311303</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q2" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R2" t="n">
         <v>1560.611119000868</v>
@@ -4361,19 +4363,19 @@
         <v>1560.611119000868</v>
       </c>
       <c r="U2" t="n">
-        <v>1524.401870510532</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="V2" t="n">
-        <v>1524.401870510532</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="W2" t="n">
-        <v>1524.401870510532</v>
+        <v>1303.550627260378</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.401870510532</v>
+        <v>909.4569103409667</v>
       </c>
       <c r="Y2" t="n">
-        <v>1524.401870510532</v>
+        <v>515.3631934215557</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.9527650369019</v>
+        <v>710.0430642665517</v>
       </c>
       <c r="C3" t="n">
-        <v>58.9576937858476</v>
+        <v>576.0479930154975</v>
       </c>
       <c r="D3" t="n">
-        <v>31.21222238001735</v>
+        <v>459.1508352348899</v>
       </c>
       <c r="E3" t="n">
-        <v>31.21222238001735</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F3" t="n">
-        <v>31.21222238001735</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H3" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>224.0250799426506</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K3" t="n">
-        <v>610.2763318953653</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L3" t="n">
-        <v>610.2763318953653</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M3" t="n">
-        <v>610.2763318953653</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="N3" t="n">
-        <v>996.52758384808</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="O3" t="n">
-        <v>1382.778835800795</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="P3" t="n">
-        <v>1382.778835800795</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q3" t="n">
         <v>1560.611119000868</v>
@@ -4437,22 +4439,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="V3" t="n">
-        <v>882.216907433437</v>
+        <v>1399.307206663087</v>
       </c>
       <c r="W3" t="n">
-        <v>668.9837391697657</v>
+        <v>1186.074038399415</v>
       </c>
       <c r="X3" t="n">
-        <v>492.6577573086585</v>
+        <v>1009.748056538308</v>
       </c>
       <c r="Y3" t="n">
-        <v>333.2557976724885</v>
+        <v>850.3460969021384</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>630.7621873641457</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C4" t="n">
-        <v>459.6688149258622</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D4" t="n">
-        <v>300.1741702487722</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E4" t="n">
-        <v>139.2633551170917</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F4" t="n">
         <v>31.21222238001735</v>
@@ -4489,13 +4491,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K4" t="n">
-        <v>199.8470995074659</v>
+        <v>199.8470995074658</v>
       </c>
       <c r="L4" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M4" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N4" t="n">
         <v>1029.84703862227</v>
@@ -4510,28 +4512,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T4" t="n">
-        <v>1560.611119000868</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.611119000868</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V4" t="n">
-        <v>1560.611119000868</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W4" t="n">
-        <v>1281.541454509742</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="X4" t="n">
-        <v>1043.197592369425</v>
+        <v>255.9479209912527</v>
       </c>
       <c r="Y4" t="n">
-        <v>818.4618937581901</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.21222238001735</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C5" t="n">
-        <v>31.21222238001735</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="D5" t="n">
-        <v>31.21222238001735</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="E5" t="n">
-        <v>31.21222238001735</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="F5" t="n">
         <v>31.21222238001735</v>
@@ -4565,19 +4567,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K5" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L5" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M5" t="n">
-        <v>1057.900197753201</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="N5" t="n">
-        <v>1198.893466516011</v>
+        <v>1189.965978238161</v>
       </c>
       <c r="O5" t="n">
         <v>1198.893466516011</v>
@@ -4595,22 +4597,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T5" t="n">
-        <v>1552.99751174719</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U5" t="n">
-        <v>1552.99751174719</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V5" t="n">
-        <v>1203.159957083671</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W5" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X5" t="n">
-        <v>819.3996562188394</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y5" t="n">
-        <v>425.3059392994284</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>192.9527650369019</v>
+        <v>373.600255755723</v>
       </c>
       <c r="C6" t="n">
-        <v>58.9576937858476</v>
+        <v>239.6051845046687</v>
       </c>
       <c r="D6" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="E6" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="F6" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="G6" t="n">
-        <v>31.21222238001735</v>
+        <v>122.7080267240611</v>
       </c>
       <c r="H6" t="n">
-        <v>31.21222238001735</v>
+        <v>51.96081375977718</v>
       </c>
       <c r="I6" t="n">
         <v>31.21222238001735</v>
@@ -4650,19 +4652,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>996.52758384808</v>
+        <v>794.9558830015396</v>
       </c>
       <c r="M6" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.800347685523</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="P6" t="n">
-        <v>1531.051599638238</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q6" t="n">
         <v>1531.051599638238</v>
@@ -4689,7 +4691,7 @@
         <v>492.6577573086585</v>
       </c>
       <c r="Y6" t="n">
-        <v>333.2557976724885</v>
+        <v>373.600255755723</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.546072681154</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="C7" t="n">
-        <v>949.4527002428704</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="D7" t="n">
-        <v>789.9580555657803</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0472404340999</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="F7" t="n">
         <v>464.4161145446911</v>
@@ -4726,13 +4728,13 @@
         <v>45.29477178522787</v>
       </c>
       <c r="K7" t="n">
-        <v>199.8470995074661</v>
+        <v>199.8470995074659</v>
       </c>
       <c r="L7" t="n">
-        <v>459.7441997875267</v>
+        <v>459.7441997875264</v>
       </c>
       <c r="M7" t="n">
-        <v>749.0082562280199</v>
+        <v>749.0082562280197</v>
       </c>
       <c r="N7" t="n">
         <v>1029.84703862227</v>
@@ -4747,28 +4749,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R7" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S7" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1321.06237997757</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U7" t="n">
-        <v>1321.06237997757</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V7" t="n">
-        <v>1321.06237997757</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W7" t="n">
-        <v>1321.06237997757</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="X7" t="n">
-        <v>1321.06237997757</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="Y7" t="n">
-        <v>1308.245779075198</v>
+        <v>492.7140010185257</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>827.0132634725169</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="C8" t="n">
-        <v>827.0132634725169</v>
+        <v>1166.517402081457</v>
       </c>
       <c r="D8" t="n">
-        <v>827.0132634725169</v>
+        <v>772.4236851620456</v>
       </c>
       <c r="E8" t="n">
-        <v>432.9195465531059</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="F8" t="n">
-        <v>38.82582963369487</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="G8" t="n">
         <v>31.21222238001735</v>
@@ -4802,22 +4804,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J8" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>671.6489458004863</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L8" t="n">
-        <v>671.6489458004863</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="M8" t="n">
         <v>788.1086150954382</v>
       </c>
       <c r="N8" t="n">
+        <v>788.1086150954382</v>
+      </c>
+      <c r="O8" t="n">
         <v>1174.359867048153</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1560.611119000868</v>
       </c>
       <c r="P8" t="n">
         <v>1560.611119000868</v>
@@ -4838,16 +4840,16 @@
         <v>1560.611119000868</v>
       </c>
       <c r="V8" t="n">
-        <v>1210.773564337348</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W8" t="n">
-        <v>827.0132634725169</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X8" t="n">
-        <v>827.0132634725169</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y8" t="n">
-        <v>827.0132634725169</v>
+        <v>1166.517402081457</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>710.0430642665517</v>
+        <v>689.2944728867919</v>
       </c>
       <c r="C9" t="n">
-        <v>576.0479930154975</v>
+        <v>555.2994016357376</v>
       </c>
       <c r="D9" t="n">
-        <v>459.1508352348899</v>
+        <v>438.40224385513</v>
       </c>
       <c r="E9" t="n">
-        <v>338.6580192272179</v>
+        <v>317.909427847458</v>
       </c>
       <c r="F9" t="n">
-        <v>229.6981394097224</v>
+        <v>208.9495480299626</v>
       </c>
       <c r="G9" t="n">
-        <v>122.7080267240611</v>
+        <v>101.9594353443013</v>
       </c>
       <c r="H9" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J9" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K9" t="n">
-        <v>31.21222238001735</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>52.01289845874021</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M9" t="n">
-        <v>438.2641504114549</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N9" t="n">
-        <v>824.5154023641696</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O9" t="n">
-        <v>1210.766654316884</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P9" t="n">
-        <v>1210.766654316884</v>
+        <v>1181.207134954254</v>
       </c>
       <c r="Q9" t="n">
-        <v>1560.611119000868</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
@@ -4914,19 +4916,19 @@
         <v>1293.279245302185</v>
       </c>
       <c r="U9" t="n">
-        <v>1186.074038399415</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V9" t="n">
-        <v>1186.074038399415</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="W9" t="n">
-        <v>1186.074038399415</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="X9" t="n">
-        <v>1009.748056538308</v>
+        <v>988.9994651585486</v>
       </c>
       <c r="Y9" t="n">
-        <v>850.3460969021384</v>
+        <v>829.5975055223786</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>526.4313653847996</v>
+        <v>909.8318518552715</v>
       </c>
       <c r="C10" t="n">
-        <v>355.3379929465161</v>
+        <v>738.738479416988</v>
       </c>
       <c r="D10" t="n">
-        <v>195.8433482694261</v>
+        <v>579.2438347398979</v>
       </c>
       <c r="E10" t="n">
-        <v>195.8433482694261</v>
+        <v>418.3330196082174</v>
       </c>
       <c r="F10" t="n">
-        <v>31.21222238001735</v>
+        <v>253.7018937188087</v>
       </c>
       <c r="G10" t="n">
-        <v>31.21222238001735</v>
+        <v>86.45150264435208</v>
       </c>
       <c r="H10" t="n">
         <v>31.21222238001735</v>
@@ -4984,28 +4986,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R10" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S10" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T10" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U10" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V10" t="n">
-        <v>1456.280297021522</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W10" t="n">
-        <v>1177.210632530396</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X10" t="n">
-        <v>938.8667703900793</v>
+        <v>1322.267256860551</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.131071778844</v>
+        <v>1097.531558249316</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>637.1426099561463</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C11" t="n">
-        <v>243.0488930367353</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D11" t="n">
-        <v>243.0488930367353</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E11" t="n">
-        <v>243.0488930367353</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F11" t="n">
         <v>31.21222238001735</v>
@@ -5042,7 +5044,7 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K11" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="L11" t="n">
         <v>417.4634743327321</v>
@@ -5051,40 +5053,40 @@
         <v>803.7147262854468</v>
       </c>
       <c r="N11" t="n">
-        <v>1189.965978238161</v>
+        <v>812.642214563296</v>
       </c>
       <c r="O11" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="P11" t="n">
-        <v>1560.611119000868</v>
+        <v>1198.893466516011</v>
       </c>
       <c r="Q11" t="n">
-        <v>1560.611119000868</v>
+        <v>1520.054473311303</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T11" t="n">
-        <v>1425.330043794968</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U11" t="n">
-        <v>1425.330043794968</v>
+        <v>1552.99751174719</v>
       </c>
       <c r="V11" t="n">
-        <v>1425.330043794968</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="W11" t="n">
-        <v>1425.330043794968</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X11" t="n">
-        <v>1425.330043794968</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="Y11" t="n">
-        <v>1031.236326875557</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>710.0430642665517</v>
+        <v>501.6501021419004</v>
       </c>
       <c r="C12" t="n">
-        <v>576.0479930154975</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="D12" t="n">
-        <v>459.1508352348899</v>
+        <v>367.6550308908461</v>
       </c>
       <c r="E12" t="n">
-        <v>338.6580192272179</v>
+        <v>247.1622148831741</v>
       </c>
       <c r="F12" t="n">
-        <v>229.6981394097224</v>
+        <v>138.2023350656787</v>
       </c>
       <c r="G12" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H12" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I12" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J12" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K12" t="n">
-        <v>417.4634743327321</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L12" t="n">
-        <v>803.7147262854468</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.965978238161</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="N12" t="n">
-        <v>1560.611119000868</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O12" t="n">
-        <v>1560.611119000868</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="P12" t="n">
         <v>1560.611119000868</v>
@@ -5145,25 +5147,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S12" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T12" t="n">
-        <v>1293.279245302185</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U12" t="n">
-        <v>1293.279245302185</v>
+        <v>1363.260308139086</v>
       </c>
       <c r="V12" t="n">
-        <v>1293.279245302185</v>
+        <v>1149.54878113212</v>
       </c>
       <c r="W12" t="n">
-        <v>1186.074038399415</v>
+        <v>936.3156128684487</v>
       </c>
       <c r="X12" t="n">
-        <v>1009.748056538308</v>
+        <v>759.9896310073416</v>
       </c>
       <c r="Y12" t="n">
-        <v>850.3460969021384</v>
+        <v>600.5876713711716</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>464.4161145446911</v>
+        <v>1120.546072681154</v>
       </c>
       <c r="C13" t="n">
-        <v>464.4161145446911</v>
+        <v>949.4527002428704</v>
       </c>
       <c r="D13" t="n">
-        <v>464.4161145446911</v>
+        <v>789.9580555657803</v>
       </c>
       <c r="E13" t="n">
-        <v>464.4161145446911</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F13" t="n">
         <v>464.4161145446911</v>
@@ -5221,28 +5223,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R13" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S13" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T13" t="n">
-        <v>1235.789661652969</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="U13" t="n">
-        <v>1235.789661652969</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="V13" t="n">
-        <v>961.9039165924912</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="W13" t="n">
-        <v>682.8342521013656</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="X13" t="n">
-        <v>682.8342521013656</v>
+        <v>1532.981477686434</v>
       </c>
       <c r="Y13" t="n">
-        <v>464.4161145446911</v>
+        <v>1308.245779075198</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>1166.517402081457</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1166.517402081457</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1166.517402081457</v>
+      </c>
+      <c r="E14" t="n">
         <v>772.4236851620456</v>
       </c>
-      <c r="C14" t="n">
-        <v>772.4236851620456</v>
-      </c>
-      <c r="D14" t="n">
-        <v>772.4236851620456</v>
-      </c>
-      <c r="E14" t="n">
-        <v>425.3059392994284</v>
-      </c>
       <c r="F14" t="n">
-        <v>31.21222238001735</v>
+        <v>378.3299682426345</v>
       </c>
       <c r="G14" t="n">
         <v>31.21222238001735</v>
@@ -5276,28 +5278,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="L14" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="M14" t="n">
-        <v>361.3007174531585</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="N14" t="n">
-        <v>747.5519694058733</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="O14" t="n">
-        <v>1133.803221358588</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P14" t="n">
-        <v>1520.054473311303</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q14" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R14" t="n">
         <v>1560.611119000868</v>
@@ -5318,7 +5320,7 @@
         <v>1560.611119000868</v>
       </c>
       <c r="X14" t="n">
-        <v>1166.517402081457</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Y14" t="n">
         <v>1166.517402081457</v>
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>689.2944728867919</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C15" t="n">
-        <v>555.2994016357376</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="D15" t="n">
-        <v>438.40224385513</v>
+        <v>260.6649182051848</v>
       </c>
       <c r="E15" t="n">
-        <v>317.909427847458</v>
+        <v>140.1721021975128</v>
       </c>
       <c r="F15" t="n">
-        <v>208.9495480299626</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G15" t="n">
-        <v>101.9594353443013</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H15" t="n">
         <v>31.21222238001735</v>
@@ -5358,19 +5360,19 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K15" t="n">
-        <v>31.21222238001735</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L15" t="n">
-        <v>401.8573631427234</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="M15" t="n">
-        <v>788.1086150954382</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N15" t="n">
         <v>1174.359867048153</v>
       </c>
       <c r="O15" t="n">
-        <v>1560.611119000868</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P15" t="n">
         <v>1560.611119000868</v>
@@ -5385,22 +5387,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.260308139086</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.54878113212</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W15" t="n">
-        <v>988.9994651585486</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X15" t="n">
-        <v>988.9994651585486</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y15" t="n">
-        <v>829.5975055223786</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>634.741229911812</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C16" t="n">
-        <v>634.741229911812</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D16" t="n">
-        <v>475.246585234722</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E16" t="n">
-        <v>475.246585234722</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F16" t="n">
-        <v>310.6154593453132</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G16" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H16" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I16" t="n">
         <v>31.21222238001735</v>
@@ -5458,28 +5460,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S16" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T16" t="n">
-        <v>1321.06237997757</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U16" t="n">
-        <v>1321.06237997757</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V16" t="n">
-        <v>1047.176634917092</v>
+        <v>492.7140010185257</v>
       </c>
       <c r="W16" t="n">
-        <v>1047.176634917092</v>
+        <v>213.6443365274001</v>
       </c>
       <c r="X16" t="n">
-        <v>1047.176634917092</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.4409363058563</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>432.9195465531059</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C17" t="n">
-        <v>425.3059392994284</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K17" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L17" t="n">
-        <v>417.4634743327321</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M17" t="n">
-        <v>417.4634743327321</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N17" t="n">
-        <v>803.7147262854468</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O17" t="n">
-        <v>1189.965978238161</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P17" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S17" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U17" t="n">
-        <v>1560.611119000868</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V17" t="n">
-        <v>1210.773564337348</v>
+        <v>1346.075159870193</v>
       </c>
       <c r="W17" t="n">
-        <v>827.0132634725169</v>
+        <v>962.314859005362</v>
       </c>
       <c r="X17" t="n">
-        <v>827.0132634725169</v>
+        <v>561.6714611743146</v>
       </c>
       <c r="Y17" t="n">
-        <v>432.9195465531059</v>
+        <v>160.7347881224047</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>710.0430642665517</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C18" t="n">
-        <v>576.0479930154975</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D18" t="n">
-        <v>459.1508352348899</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E18" t="n">
-        <v>338.6580192272179</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F18" t="n">
-        <v>229.6981394097224</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G18" t="n">
-        <v>122.7080267240611</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H18" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L18" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M18" t="n">
-        <v>31.21222238001735</v>
+        <v>675.164428100838</v>
       </c>
       <c r="N18" t="n">
-        <v>408.7046310488249</v>
+        <v>675.164428100838</v>
       </c>
       <c r="O18" t="n">
-        <v>794.9558830015396</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P18" t="n">
-        <v>1181.207134954254</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q18" t="n">
-        <v>1531.051599638238</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R18" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S18" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T18" t="n">
-        <v>1452.621109115176</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1452.621109115176</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V18" t="n">
-        <v>1399.307206663087</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W18" t="n">
-        <v>1186.074038399415</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X18" t="n">
-        <v>1009.748056538308</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>850.3460969021384</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.21222238001735</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="C19" t="n">
-        <v>31.21222238001735</v>
+        <v>882.6570831807262</v>
       </c>
       <c r="D19" t="n">
-        <v>31.21222238001735</v>
+        <v>723.1624385036362</v>
       </c>
       <c r="E19" t="n">
-        <v>31.21222238001735</v>
+        <v>562.2516233719557</v>
       </c>
       <c r="F19" t="n">
-        <v>31.21222238001735</v>
+        <v>397.620497482547</v>
       </c>
       <c r="G19" t="n">
-        <v>31.21222238001735</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H19" t="n">
-        <v>31.21222238001735</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I19" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M19" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N19" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O19" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P19" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1321.06237997757</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U19" t="n">
-        <v>1038.264232523694</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V19" t="n">
-        <v>764.3784874632158</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W19" t="n">
-        <v>485.3088229720902</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X19" t="n">
-        <v>246.9649608317736</v>
+        <v>1053.75045561901</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.21222238001735</v>
+        <v>1053.75045561901</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1188.0442105313</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="C20" t="n">
-        <v>1188.0442105313</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D20" t="n">
-        <v>1188.0442105313</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E20" t="n">
-        <v>773.7039950481965</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F20" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G20" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>692.8507596625949</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="L20" t="n">
-        <v>692.8507596625949</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M20" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N20" t="n">
-        <v>1726.536628995245</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P20" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q20" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>1473.706230480572</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V20" t="n">
-        <v>1188.0442105313</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W20" t="n">
-        <v>1188.0442105313</v>
+        <v>1667.906551660152</v>
       </c>
       <c r="X20" t="n">
-        <v>1188.0442105313</v>
+        <v>1267.263153829105</v>
       </c>
       <c r="Y20" t="n">
-        <v>1188.0442105313</v>
+        <v>866.3264807771948</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161363</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.600856265082</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844745</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768025</v>
       </c>
       <c r="F21" t="n">
         <v>240.2510026593071</v>
@@ -5823,34 +5825,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N21" t="n">
-        <v>1014.414276561226</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O21" t="n">
-        <v>1531.257211227551</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P21" t="n">
-        <v>2048.100145893876</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q21" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
         <v>2088.254281480102</v>
@@ -5874,7 +5876,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>309.3668567106114</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C22" t="n">
-        <v>309.3668567106114</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D22" t="n">
-        <v>309.3668567106114</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E22" t="n">
-        <v>148.4560415789309</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F22" t="n">
-        <v>148.4560415789309</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5932,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S22" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U22" t="n">
-        <v>1288.365834796576</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V22" t="n">
-        <v>1014.480089736098</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W22" t="n">
-        <v>735.4104252449724</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X22" t="n">
-        <v>497.0665631046558</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y22" t="n">
-        <v>497.0665631046558</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>959.2718510455712</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C23" t="n">
-        <v>549.1472603588413</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D23" t="n">
-        <v>549.1472603588413</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E23" t="n">
-        <v>549.1472603588413</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F23" t="n">
-        <v>128.1168483125289</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G23" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H23" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K23" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L23" t="n">
-        <v>692.8507596625949</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M23" t="n">
-        <v>692.8507596625949</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N23" t="n">
-        <v>692.8507596625949</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O23" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P23" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6029,10 +6031,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>1770.429703761971</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>1369.493030710061</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6042,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960205</v>
+        <v>508.1659581184963</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959273</v>
+        <v>1025.008892784821</v>
       </c>
       <c r="N24" t="n">
-        <v>704.7239474634683</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="O24" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P24" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q24" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6102,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1201.255172149341</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C25" t="n">
-        <v>1201.255172149341</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D25" t="n">
-        <v>1201.255172149341</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E25" t="n">
-        <v>1040.344357017661</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F25" t="n">
-        <v>875.7132311282519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G25" t="n">
-        <v>708.4628400537953</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H25" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I25" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>2002.981563155502</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.576322215099</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T25" t="n">
-        <v>1887.576322215099</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.576322215099</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V25" t="n">
-        <v>1613.690577154621</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.690577154621</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X25" t="n">
-        <v>1613.690577154621</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y25" t="n">
-        <v>1388.954878543385</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C26" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D26" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E26" t="n">
-        <v>871.5237817830823</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F26" t="n">
-        <v>450.4933697367699</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N26" t="n">
-        <v>1592.293889628578</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O26" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P26" t="n">
         <v>2088.254281480102</v>
@@ -6254,22 +6256,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U26" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1686.800670318095</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W26" t="n">
-        <v>1686.800670318095</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X26" t="n">
-        <v>1686.800670318095</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="Y26" t="n">
-        <v>1285.863997266186</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G27" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M27" t="n">
-        <v>1207.227134123859</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="N27" t="n">
-        <v>1207.227134123859</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="O27" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P27" t="n">
         <v>2088.254281480102</v>
@@ -6336,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>821.9968360591052</v>
+        <v>795.3744376030463</v>
       </c>
       <c r="C28" t="n">
-        <v>650.9034636208218</v>
+        <v>795.3744376030463</v>
       </c>
       <c r="D28" t="n">
-        <v>650.9034636208218</v>
+        <v>635.8797929259563</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9926484891412</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="F28" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6412,22 +6414,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T28" t="n">
-        <v>1059.950756782464</v>
+        <v>1207.809842608326</v>
       </c>
       <c r="U28" t="n">
-        <v>821.9968360591052</v>
+        <v>1207.809842608326</v>
       </c>
       <c r="V28" t="n">
-        <v>821.9968360591052</v>
+        <v>1207.809842608326</v>
       </c>
       <c r="W28" t="n">
-        <v>821.9968360591052</v>
+        <v>1207.809842608326</v>
       </c>
       <c r="X28" t="n">
-        <v>821.9968360591052</v>
+        <v>1207.809842608326</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.9968360591052</v>
+        <v>983.0741439970907</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1303.557307563361</v>
+        <v>1294.272800950781</v>
       </c>
       <c r="C29" t="n">
-        <v>893.4327168766312</v>
+        <v>884.148210264051</v>
       </c>
       <c r="D29" t="n">
-        <v>893.4327168766312</v>
+        <v>884.148210264051</v>
       </c>
       <c r="E29" t="n">
-        <v>893.4327168766312</v>
+        <v>469.8079947809478</v>
       </c>
       <c r="F29" t="n">
-        <v>472.4023048303187</v>
+        <v>48.7775827346353</v>
       </c>
       <c r="G29" t="n">
-        <v>63.67402072315087</v>
+        <v>48.7775827346353</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
         <v>295.9505570973564</v>
@@ -6467,19 +6469,19 @@
         <v>295.9505570973564</v>
       </c>
       <c r="L29" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M29" t="n">
-        <v>1329.636426430007</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N29" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O29" t="n">
-        <v>1846.479361096332</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P29" t="n">
-        <v>1846.479361096332</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q29" t="n">
         <v>2047.697635790537</v>
@@ -6500,13 +6502,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.493980615271</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.493980615271</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="Y29" t="n">
-        <v>1303.557307563361</v>
+        <v>1704.49398061527</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G30" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>158.3214934345131</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>158.3214934345131</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M30" t="n">
-        <v>158.3214934345131</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N30" t="n">
-        <v>675.1644281008383</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q30" t="n">
         <v>2058.694762117472</v>
@@ -6576,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>865.1454348405214</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="C31" t="n">
-        <v>694.0520624022379</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="D31" t="n">
-        <v>534.5574177251478</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E31" t="n">
-        <v>373.6466025934674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F31" t="n">
-        <v>209.0154767040586</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6646,25 +6648,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T31" t="n">
-        <v>1331.615243227154</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U31" t="n">
-        <v>1331.615243227154</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V31" t="n">
-        <v>1057.729498166676</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W31" t="n">
-        <v>1057.729498166676</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="X31" t="n">
-        <v>1057.729498166676</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="Y31" t="n">
-        <v>1052.845141234566</v>
+        <v>862.4253276531883</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1277.096428763703</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="C32" t="n">
-        <v>1277.096428763703</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="D32" t="n">
-        <v>1277.096428763703</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E32" t="n">
-        <v>862.7562132805995</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F32" t="n">
-        <v>441.725801234287</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="L32" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N32" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O32" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P32" t="n">
         <v>1726.536628995245</v>
@@ -6725,25 +6727,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X32" t="n">
-        <v>2088.254281480102</v>
+        <v>1073.062832649524</v>
       </c>
       <c r="Y32" t="n">
-        <v>1687.317608428192</v>
+        <v>672.1261595976142</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6776,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K33" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L33" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M33" t="n">
-        <v>1531.257211227551</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N33" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O33" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P33" t="n">
         <v>2088.254281480102</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1648.189235160388</v>
+        <v>1109.57853079593</v>
       </c>
       <c r="C34" t="n">
-        <v>1477.095862722105</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D34" t="n">
-        <v>1317.601218045015</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E34" t="n">
-        <v>1156.690402913334</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0592770239257</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J34" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V34" t="n">
-        <v>1814.368536419624</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="W34" t="n">
-        <v>1648.189235160388</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="X34" t="n">
-        <v>1648.189235160388</v>
+        <v>1297.278237189974</v>
       </c>
       <c r="Y34" t="n">
-        <v>1648.189235160388</v>
+        <v>1297.278237189974</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>902.9139097323135</v>
+        <v>902.9139097323131</v>
       </c>
       <c r="C35" t="n">
-        <v>492.7893190455836</v>
+        <v>492.7893190455832</v>
       </c>
       <c r="D35" t="n">
-        <v>88.32538913864414</v>
+        <v>88.32538913864369</v>
       </c>
       <c r="E35" t="n">
-        <v>88.32538913864414</v>
+        <v>88.32538913864369</v>
       </c>
       <c r="F35" t="n">
-        <v>88.32538913864414</v>
+        <v>88.32538913864369</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>88.32538913864369</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L35" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>295.9505570973564</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N35" t="n">
-        <v>692.8507596625949</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O35" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P35" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q35" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R35" t="n">
         <v>2088.254281480102</v>
@@ -6974,13 +6976,13 @@
         <v>2088.254281480102</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.493980615271</v>
+        <v>1704.49398061527</v>
       </c>
       <c r="X35" t="n">
         <v>1303.850582784223</v>
       </c>
       <c r="Y35" t="n">
-        <v>902.9139097323135</v>
+        <v>902.9139097323131</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M36" t="n">
-        <v>158.3214934345131</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="N36" t="n">
-        <v>675.1644281008383</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O36" t="n">
-        <v>1192.007362767164</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P36" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q36" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R36" t="n">
         <v>2088.254281480102</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722105</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045015</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239257</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494691</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W37" t="n">
-        <v>2060.624640165668</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X37" t="n">
-        <v>2060.624640165668</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554433</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="38">
@@ -7148,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1678.033101815613</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="C38" t="n">
-        <v>1267.908511128883</v>
+        <v>1678.129690793372</v>
       </c>
       <c r="D38" t="n">
-        <v>1267.908511128883</v>
+        <v>1273.665760886433</v>
       </c>
       <c r="E38" t="n">
-        <v>853.5682956457795</v>
+        <v>859.3255454033292</v>
       </c>
       <c r="F38" t="n">
-        <v>432.537883599467</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>438.2951333570168</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="L38" t="n">
-        <v>812.7934917636817</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="M38" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="N38" t="n">
-        <v>1209.69369432892</v>
+        <v>733.4074053521595</v>
       </c>
       <c r="O38" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P38" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7227,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G39" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L39" t="n">
-        <v>704.7239474634683</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M39" t="n">
-        <v>1221.566882129794</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N39" t="n">
-        <v>1738.409816796119</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="O39" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q39" t="n">
         <v>2088.254281480102</v>
@@ -7287,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>463.7459388002824</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C40" t="n">
-        <v>463.7459388002824</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D40" t="n">
-        <v>463.7459388002824</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E40" t="n">
-        <v>302.8351236686019</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F40" t="n">
-        <v>302.8351236686019</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G40" t="n">
         <v>191.3725408241454</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7354,28 +7356,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R40" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1016.701348351886</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V40" t="n">
-        <v>742.815603291408</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W40" t="n">
-        <v>463.7459388002824</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X40" t="n">
-        <v>463.7459388002824</v>
+        <v>1332.820120110135</v>
       </c>
       <c r="Y40" t="n">
-        <v>463.7459388002824</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.033101815613</v>
+        <v>142.8551754043043</v>
       </c>
       <c r="C41" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D41" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E41" t="n">
-        <v>853.5682956457795</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F41" t="n">
-        <v>432.537883599467</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>692.8507596625949</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M41" t="n">
+        <v>295.9505570973564</v>
+      </c>
+      <c r="N41" t="n">
+        <v>692.8507596625946</v>
+      </c>
+      <c r="O41" t="n">
         <v>1209.69369432892</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1726.536628995245</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1726.536628995245</v>
       </c>
       <c r="P41" t="n">
         <v>1726.536628995245</v>
@@ -7445,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X41" t="n">
-        <v>2088.254281480102</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y41" t="n">
-        <v>2088.254281480102</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960205</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L42" t="n">
-        <v>558.6080202959273</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.450954962253</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N42" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O42" t="n">
-        <v>2088.254281480102</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="P42" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>697.8950437660649</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C43" t="n">
-        <v>526.8016713277814</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D43" t="n">
-        <v>367.3070266506913</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E43" t="n">
-        <v>206.3962115190108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7594,25 +7596,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1145.223475107064</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U43" t="n">
-        <v>1145.223475107064</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V43" t="n">
-        <v>1145.223475107064</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W43" t="n">
-        <v>1145.223475107064</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X43" t="n">
-        <v>906.8796129667476</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y43" t="n">
-        <v>885.5947501601092</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>816.6798474179373</v>
+        <v>1542.752026609713</v>
       </c>
       <c r="C44" t="n">
-        <v>816.6798474179373</v>
+        <v>1132.627435922983</v>
       </c>
       <c r="D44" t="n">
-        <v>425.3059392994284</v>
+        <v>728.1635060160438</v>
       </c>
       <c r="E44" t="n">
-        <v>425.3059392994284</v>
+        <v>728.1635060160438</v>
       </c>
       <c r="F44" t="n">
-        <v>425.3059392994284</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>426.3909626105813</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L44" t="n">
-        <v>426.3909626105813</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M44" t="n">
-        <v>426.3909626105813</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N44" t="n">
-        <v>426.3909626105813</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O44" t="n">
-        <v>812.642214563296</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V44" t="n">
-        <v>1210.773564337348</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W44" t="n">
-        <v>1210.773564337348</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X44" t="n">
-        <v>816.6798474179373</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y44" t="n">
-        <v>816.6798474179373</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>300.9427749225932</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>166.9477036715389</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>166.9477036715389</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>51.96081375977718</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>51.96081375977718</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>51.96081375977718</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>51.96081375977718</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>31.21222238001735</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>401.8573631427234</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>788.1086150954382</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M45" t="n">
-        <v>788.1086150954382</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N45" t="n">
-        <v>788.1086150954382</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O45" t="n">
-        <v>1174.359867048153</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1560.611119000868</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1401.269255187876</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1203.918444326094</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>990.2069173191283</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>776.973749055457</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>600.6477671943499</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>441.2458075581799</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1475.338400676267</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S46" t="n">
-        <v>1288.946632556178</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T46" t="n">
-        <v>1049.39789353288</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U46" t="n">
-        <v>766.5997460790038</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V46" t="n">
-        <v>492.7140010185257</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W46" t="n">
-        <v>213.6443365274001</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X46" t="n">
-        <v>31.21222238001735</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>485.6381778130617</v>
+        <v>278.8691500349403</v>
       </c>
       <c r="M2" t="n">
-        <v>426.7129467531477</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
@@ -7997,10 +7999,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N3" t="n">
-        <v>443.3461731439669</v>
+        <v>427.5824244671906</v>
       </c>
       <c r="O3" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.3211873938012</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8140,7 +8142,7 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L4" t="n">
-        <v>317.1506174091145</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M4" t="n">
         <v>348.4508580952379</v>
@@ -8213,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L5" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N5" t="n">
-        <v>235.3297339513764</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>102.2074405529036</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8298,22 +8300,22 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>446.2673035610659</v>
+        <v>242.6595249281969</v>
       </c>
       <c r="M6" t="n">
-        <v>207.334752261087</v>
+        <v>447.7170634886343</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8374,7 +8376,7 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K7" t="n">
-        <v>208.363831904762</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L7" t="n">
         <v>317.1506174091142</v>
@@ -8450,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M8" t="n">
-        <v>210.9262540479059</v>
+        <v>467.6792555304859</v>
       </c>
       <c r="N8" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>77.12530772875093</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N9" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>240.8046361201516</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>479.289169423434</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M11" t="n">
         <v>483.4430042072623</v>
       </c>
       <c r="N11" t="n">
-        <v>483.0650705068362</v>
+        <v>101.9299556837397</v>
       </c>
       <c r="O11" t="n">
-        <v>467.5788066992237</v>
+        <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>445.9785625348323</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>446.2673035610659</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
         <v>447.7170634886343</v>
       </c>
       <c r="N12" t="n">
-        <v>427.5824244671906</v>
+        <v>443.3461731439669</v>
       </c>
       <c r="O12" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>233.8882038917663</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
@@ -8933,7 +8935,7 @@
         <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>426.7129467531477</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
         <v>483.0650705068362</v>
@@ -8945,10 +8947,10 @@
         <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>207.6698339900124</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
         <v>430.5035548842895</v>
@@ -9015,13 +9017,13 @@
         <v>447.7170634886343</v>
       </c>
       <c r="N15" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9167,25 +9169,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>485.6381778130617</v>
+        <v>596.4554908421622</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>483.0650705068362</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>483.342555376</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P17" t="n">
-        <v>427.0720855769865</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9249,16 +9251,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>502.6011371814505</v>
       </c>
       <c r="N18" t="n">
-        <v>434.4988566955759</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>447.9042587502169</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P18" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>490.0456851936601</v>
+        <v>590.1064824525346</v>
       </c>
       <c r="L20" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q21" t="n">
-        <v>67.39425105392507</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,25 +9640,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>231.0841246958424</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958087</v>
+        <v>553.1935596277623</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>527.2265162238735</v>
       </c>
       <c r="M24" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>200.7852390175288</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M26" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1598684051008</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P26" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
@@ -9954,22 +9956,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O27" t="n">
-        <v>425.6143201009271</v>
+        <v>363.9611095948396</v>
       </c>
       <c r="P27" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10115,22 +10117,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>617.5489684328704</v>
+        <v>496.3946935832874</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q29" t="n">
-        <v>293.2845869185513</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10188,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>173.5595280421012</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q30" t="n">
         <v>410.0708656603775</v>
@@ -10349,7 +10351,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>89.13638967321712</v>
+        <v>490.0456851936598</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
@@ -10358,13 +10360,13 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10428,22 +10430,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M33" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N33" t="n">
-        <v>93.75312630912927</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
         <v>56.69261850483872</v>
@@ -10586,28 +10588,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N35" t="n">
-        <v>493.8215862770623</v>
+        <v>337.1293820533567</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>175.2980289959033</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>576.3232053728293</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,28 +10825,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>531.011993970998</v>
       </c>
       <c r="L38" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M38" t="n">
-        <v>494.1995199774884</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O38" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>531.0094776201754</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>98.31121191537929</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>231.0841246958424</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>614.9758611266449</v>
+        <v>493.821586277062</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11139,25 +11141,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M42" t="n">
-        <v>579.627854108443</v>
+        <v>266.8093398682832</v>
       </c>
       <c r="N42" t="n">
-        <v>554.1634861730677</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11297,22 +11299,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>231.5538328679743</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>483.8021430311011</v>
+        <v>494.5586588013268</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -11373,13 +11375,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>430.2148138580559</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>446.2673035610659</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11388,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C2" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>311.262609026964</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>14.48822151587922</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -22601,7 +22603,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>218.6427308176532</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>346.3391791168841</v>
@@ -22610,10 +22612,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22631,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>158.7936483093277</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22702,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>56.01419322081105</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -22750,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>41.88054861921404</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22787,13 +22789,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>73.17353952185829</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -22835,22 +22837,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>212.4469480314691</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>88.26016951102955</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -22878,10 +22880,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>39.94101350240209</v>
       </c>
     </row>
     <row r="7">
@@ -22939,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>134.9699070214184</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -23008,7 +23010,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>209.7999067317752</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -23024,16 +23026,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>10.26651085765315</v>
       </c>
       <c r="E8" t="n">
         <v>20.04403357805535</v>
       </c>
       <c r="F8" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>397.1035300849554</v>
+        <v>60.9944328621051</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23078,16 +23080,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="9">
@@ -23118,7 +23120,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23154,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>89.24414791942208</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
@@ -23163,7 +23165,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>68.70304245346006</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23185,16 +23187,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>93.42449318090654</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -23236,10 +23238,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>252.2793649916752</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>15.87056502964566</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23267,7 +23269,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>207.1018039756985</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>404.6410012660961</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>246.9524156419444</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>6.484184102520089</v>
       </c>
       <c r="Y11" t="n">
         <v>6.774526571173908</v>
@@ -23334,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>40.95180877225226</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23352,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23387,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>104.9676817472931</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.25438544401527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -23501,13 +23503,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>66.55024492428123</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F14" t="n">
         <v>26.66732817563241</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>60.9944328621051</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23558,10 +23560,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="15">
@@ -23574,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>75.85310805256714</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
         <v>20.54110546596223</v>
@@ -23625,7 +23627,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23634,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>52.1570137671988</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>4.151268004786203</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300456</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>288.3389623999699</v>
       </c>
       <c r="C17" t="n">
-        <v>398.4858735987218</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>10.26651085765315</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23795,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.774526571173908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23862,13 +23864,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>158.7936483093277</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>76.57499550861152</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,13 +23943,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.893130557884291</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23978,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24017,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>63.53377936710461</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>218.268332157518</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24133,13 +24135,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>59.95384077387649</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>55.35263051300481</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24212,19 +24214,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24269,10 +24271,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>81.99063191178692</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.27666190788985</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -24421,7 +24423,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24430,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="26">
@@ -24449,16 +24451,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24494,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>82.82836852033762</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>13.36686229055738</v>
       </c>
     </row>
     <row r="27">
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>146.3804949676035</v>
       </c>
       <c r="U28" t="n">
-        <v>44.39578446321198</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -24667,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,16 +24688,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>286.1095666559459</v>
+        <v>300.8570402645763</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -24746,7 +24748,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>96.60443348087411</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24888,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -24904,7 +24906,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>217.6528282623338</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>192.2583179677848</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>8.679892817457983</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
         <v>307.7994123985592</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -24980,7 +24982,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.30520108346107</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>111.7614595995708</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
@@ -25166,10 +25168,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>358.5463007921445</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>261.704711924608</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06664624006455</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
         <v>184.5278504388888</v>
@@ -25375,7 +25377,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>17.77593127592979</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0.7229102045162108</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.22993014770013</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>93.42449318090686</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>305.9441559029073</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>17.77593127592979</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
@@ -25685,16 +25687,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25834,25 +25836,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.416327446551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>12.95912157054624</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>141.9266730093681</v>
       </c>
       <c r="G44" t="n">
-        <v>14.48822151587922</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -25922,13 +25924,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -25947,19 +25949,19 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>5.450866834951157</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884632</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477544.6330018535</v>
+        <v>477544.6330018536</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477544.6330018535</v>
+        <v>477544.6330018537</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477544.6330018536</v>
+        <v>477544.6330018535</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477544.6330018535</v>
+        <v>477544.6330018536</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>477544.6330018535</v>
+        <v>571352.6897686903</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>571352.6897686903</v>
+        <v>571352.6897686902</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>571352.6897686904</v>
+        <v>571352.6897686902</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>571352.6897686903</v>
+        <v>571352.6897686902</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>477544.6330018537</v>
+        <v>571352.6897686903</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>111322.3517109386</v>
       </c>
       <c r="E2" t="n">
-        <v>111322.3517109387</v>
+        <v>111322.3517109386</v>
       </c>
       <c r="F2" t="n">
-        <v>111322.3517109387</v>
+        <v>111322.3517109386</v>
       </c>
       <c r="G2" t="n">
-        <v>111322.3517109386</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="H2" t="n">
         <v>133181.3099302737</v>
       </c>
       <c r="I2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="J2" t="n">
         <v>133181.3099302736</v>
       </c>
       <c r="K2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="L2" t="n">
         <v>133181.3099302737</v>
       </c>
       <c r="M2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="N2" t="n">
         <v>133181.3099302736</v>
       </c>
       <c r="O2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="P2" t="n">
-        <v>111322.3517109386</v>
+        <v>133181.3099302736</v>
       </c>
     </row>
     <row r="3">
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>36154.76904703023</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>31744.46367344755</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="C4" t="n">
         <v>32593.54773220027</v>
@@ -26430,7 +26432,7 @@
         <v>32593.54773220027</v>
       </c>
       <c r="G4" t="n">
-        <v>32593.54773220027</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="H4" t="n">
         <v>39061.35498003941</v>
@@ -26439,7 +26441,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="J4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="K4" t="n">
         <v>39061.35498003941</v>
@@ -26448,7 +26450,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="M4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="N4" t="n">
         <v>39061.35498003941</v>
@@ -26457,7 +26459,7 @@
         <v>39061.35498003941</v>
       </c>
       <c r="P4" t="n">
-        <v>32593.54773220027</v>
+        <v>39061.3549800394</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>23721.28900881319</v>
       </c>
       <c r="G5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-109369.2550383068</v>
       </c>
       <c r="C6" t="n">
-        <v>21379.91496992516</v>
+        <v>21379.91496992519</v>
       </c>
       <c r="D6" t="n">
         <v>21379.91496992519</v>
       </c>
       <c r="E6" t="n">
-        <v>55007.51496992522</v>
+        <v>55007.51496992516</v>
       </c>
       <c r="F6" t="n">
-        <v>55007.51496992522</v>
+        <v>55007.51496992519</v>
       </c>
       <c r="G6" t="n">
-        <v>55007.51496992518</v>
+        <v>26223.72082470641</v>
       </c>
       <c r="H6" t="n">
-        <v>26787.77136539675</v>
+        <v>62378.4898717367</v>
       </c>
       <c r="I6" t="n">
-        <v>62378.48987173669</v>
+        <v>62378.48987173665</v>
       </c>
       <c r="J6" t="n">
-        <v>-39702.64403322909</v>
+        <v>-39702.64403322911</v>
       </c>
       <c r="K6" t="n">
-        <v>62378.48987173669</v>
+        <v>62378.48987173665</v>
       </c>
       <c r="L6" t="n">
-        <v>62378.48987173669</v>
+        <v>62378.4898717367</v>
       </c>
       <c r="M6" t="n">
-        <v>62378.48987173669</v>
+        <v>62378.48987173665</v>
       </c>
       <c r="N6" t="n">
-        <v>62378.48987173666</v>
+        <v>62378.48987173665</v>
       </c>
       <c r="O6" t="n">
-        <v>62378.48987173672</v>
+        <v>30634.02619828912</v>
       </c>
       <c r="P6" t="n">
-        <v>55007.51496992519</v>
+        <v>62378.48987173667</v>
       </c>
     </row>
   </sheetData>
@@ -26802,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>131.9107906198086</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="M2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M2" t="n">
-        <v>333.4227222961022</v>
-      </c>
       <c r="N2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1527797502169</v>
+        <v>374.3890310734406</v>
       </c>
       <c r="O3" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.6285688889625</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34862,7 @@
         <v>156.1134623456949</v>
       </c>
       <c r="L4" t="n">
-        <v>262.522323515213</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M4" t="n">
         <v>292.1859155964578</v>
@@ -34933,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N5" t="n">
-        <v>142.4174431947571</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>9.017664927120512</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35020,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
+        <v>186.5450011173479</v>
+      </c>
+      <c r="M6" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="M6" t="n">
-        <v>149.7704685226696</v>
-      </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35094,7 +35096,7 @@
         <v>14.22479737900053</v>
       </c>
       <c r="K7" t="n">
-        <v>156.1134623456952</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L7" t="n">
         <v>262.5223235152127</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>117.6360295908604</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="N8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>21.01078391790188</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>186.5450011173479</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N11" t="n">
+        <v>9.017664927120396</v>
+      </c>
+      <c r="O11" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O11" t="n">
-        <v>374.3890310734406</v>
-      </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="N12" t="n">
-        <v>374.3890310734406</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>333.4227222961022</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>390.1527797502169</v>
@@ -35665,10 +35667,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
         <v>374.3890310734405</v>
@@ -35735,13 +35737,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="O15" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>390.1527797502169</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P17" t="n">
-        <v>333.4227222961023</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="N18" t="n">
-        <v>381.3054633018259</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P18" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>400.909295520443</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q21" t="n">
-        <v>10.70163254908636</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,25 +36360,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>135.5987266329976</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>147.5918456237788</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>500.9700927793177</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O27" t="n">
-        <v>367.8628411009271</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="P27" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36835,22 +36837,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q29" t="n">
-        <v>203.2507825193993</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R29" t="n">
         <v>40.9663087773382</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>117.7337452574859</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q30" t="n">
         <v>353.3782471555388</v>
@@ -37069,7 +37071,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37078,13 +37080,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N33" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N35" t="n">
-        <v>400.909295520443</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>117.7337452574859</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>522.0635703700256</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q36" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977809</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>474.8949538093263</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700256</v>
+        <v>209.2450561298658</v>
       </c>
       <c r="N42" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>142.4174431947572</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>390.1527797502169</v>
+        <v>400.9092955204427</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>374.3890310734405</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>390.1527797502169</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>197518.4095239739</v>
+        <v>191061.2342550936</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>89.15668158090607</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>99.38676347493978</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,19 +746,19 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>52.78076342756878</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>234.3984192270003</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>13.99263448916712</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>390.1527797502169</v>
+        <v>343.6465684039911</v>
       </c>
       <c r="E5" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="F5" t="n">
-        <v>343.646568403991</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6551205385437</v>
+        <v>13.50024352644903</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
         <v>70.03974083464111</v>
@@ -1028,7 +1028,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1043,7 +1043,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y6" t="n">
-        <v>117.8669265374062</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>28.01490760909623</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>126.4272545495977</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,22 +1135,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>115.9008527225315</v>
       </c>
       <c r="D8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="E8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15.09023863101106</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>157.7484451748619</v>
@@ -1271,13 +1271,13 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
-        <v>105.8596795890361</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
         <v>157.8079400398083</v>
@@ -1293,22 +1293,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>54.68688746169137</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>41.24458363092522</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.7183039501509</v>
       </c>
       <c r="U11" t="n">
-        <v>7.537471181140626</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>390.1527797502169</v>
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.94819353697849</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>18.64994027580487</v>
       </c>
       <c r="F12" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U12" t="n">
         <v>195.3773027531635</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834969</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>343.646568403991</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G14" t="n">
-        <v>343.646568403991</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>39.87507815023435</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
         <v>119.2878878475953</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T15" t="n">
         <v>157.7484451748619</v>
@@ -1748,13 +1748,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>53.49043824289748</v>
       </c>
     </row>
     <row r="16">
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>29.06736062834969</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.7800054678746</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>313.0795152218687</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H18" t="n">
-        <v>70.03974083464081</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I18" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>89.00289165510048</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>199.5236603577778</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
         <v>254.489886823085</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>161.6543656986651</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>142.3145500079035</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2298,7 +2298,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>215.7942570968684</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>276.2789678462144</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>112.847707218578</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>101.6945967075517</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>165.4216953850578</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2560,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>353.2863285587447</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>383.5604440308334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2699,7 +2699,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X27" t="n">
-        <v>174.5627220424958</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y27" t="n">
         <v>157.8079400398083</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>42.43741174507632</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>90.77275666546139</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.942372133982936</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>59.05320374378573</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>61.29526474944497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>76.50615482373425</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
         <v>184.5278504388888</v>
@@ -3006,16 +3006,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>213.8606499000598</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>173.7734060346606</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>148.0772376304396</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,10 +3204,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>211.2688105937647</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>105.4678623998828</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>46.09470047395124</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>58.87768236127958</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.076502194043</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>383.5604440308339</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,22 +3663,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507632</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>129.0638484442161</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>120.6587098992573</v>
       </c>
       <c r="C41" t="n">
-        <v>100.0791888769552</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>78.17205082787855</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>201.3950001541096</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>274.8934349164812</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121.2694765021447</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C2" t="n">
-        <v>121.2694765021447</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="D2" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="E2" t="n">
         <v>31.21222238001735</v>
@@ -4330,22 +4330,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K2" t="n">
-        <v>671.6489458004863</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="L2" t="n">
+        <v>466.9476083001462</v>
+      </c>
+      <c r="M2" t="n">
+        <v>466.9476083001462</v>
+      </c>
+      <c r="N2" t="n">
+        <v>466.9476083001462</v>
+      </c>
+      <c r="O2" t="n">
         <v>853.1988602528609</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1239.450112205576</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1239.450112205576</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1239.450112205576</v>
       </c>
       <c r="P2" t="n">
         <v>1239.450112205576</v>
@@ -4357,25 +4357,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1460.220448824161</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1460.220448824161</v>
       </c>
       <c r="U2" t="n">
-        <v>1303.550627260378</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="V2" t="n">
-        <v>1303.550627260378</v>
+        <v>1203.159957083671</v>
       </c>
       <c r="W2" t="n">
-        <v>1303.550627260378</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="X2" t="n">
-        <v>909.4569103409667</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="Y2" t="n">
-        <v>515.3631934215557</v>
+        <v>819.3996562188394</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>710.0430642665517</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C3" t="n">
-        <v>576.0479930154975</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D3" t="n">
-        <v>459.1508352348899</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6580192272179</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F3" t="n">
-        <v>229.6981394097224</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G3" t="n">
-        <v>122.7080267240611</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H3" t="n">
-        <v>51.96081375977718</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I3" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L3" t="n">
-        <v>803.7147262854468</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M3" t="n">
-        <v>1189.965978238161</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N3" t="n">
-        <v>1560.611119000868</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O3" t="n">
         <v>1560.611119000868</v>
@@ -4436,25 +4436,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S3" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T3" t="n">
-        <v>1452.621109115176</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U3" t="n">
-        <v>1452.621109115176</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V3" t="n">
-        <v>1399.307206663087</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W3" t="n">
-        <v>1186.074038399415</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X3" t="n">
-        <v>1009.748056538308</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y3" t="n">
-        <v>850.3460969021384</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="C4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="D4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="E4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="F4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="G4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I4" t="n">
-        <v>31.21222238001735</v>
+        <v>31.21222238001734</v>
       </c>
       <c r="J4" t="n">
         <v>45.29477178522787</v>
@@ -4515,25 +4515,25 @@
         <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1288.946632556178</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="T4" t="n">
-        <v>1049.39789353288</v>
+        <v>1235.789661652969</v>
       </c>
       <c r="U4" t="n">
-        <v>766.5997460790038</v>
+        <v>952.9915141990934</v>
       </c>
       <c r="V4" t="n">
-        <v>492.7140010185257</v>
+        <v>679.1057691386154</v>
       </c>
       <c r="W4" t="n">
-        <v>255.9479209912527</v>
+        <v>400.0361046474898</v>
       </c>
       <c r="X4" t="n">
-        <v>255.9479209912527</v>
+        <v>161.6922425071731</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1166.517402081457</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="C5" t="n">
-        <v>1166.517402081457</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="D5" t="n">
-        <v>772.4236851620456</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="E5" t="n">
-        <v>378.3299682426345</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F5" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G5" t="n">
         <v>31.21222238001735</v>
@@ -4567,28 +4567,28 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J5" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K5" t="n">
-        <v>417.4634743327321</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="L5" t="n">
-        <v>417.4634743327321</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="M5" t="n">
-        <v>803.7147262854468</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N5" t="n">
-        <v>1189.965978238161</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O5" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="P5" t="n">
-        <v>1198.893466516011</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q5" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R5" t="n">
         <v>1560.611119000868</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373.600255755723</v>
+        <v>352.2946288498937</v>
       </c>
       <c r="C6" t="n">
-        <v>239.6051845046687</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="D6" t="n">
-        <v>122.7080267240611</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="E6" t="n">
-        <v>122.7080267240611</v>
+        <v>338.6580192272179</v>
       </c>
       <c r="F6" t="n">
-        <v>122.7080267240611</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G6" t="n">
         <v>122.7080267240611</v>
@@ -4652,19 +4652,19 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L6" t="n">
-        <v>794.9558830015396</v>
+        <v>996.52758384808</v>
       </c>
       <c r="M6" t="n">
-        <v>1181.207134954254</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N6" t="n">
-        <v>1181.207134954254</v>
+        <v>1144.800347685523</v>
       </c>
       <c r="O6" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="P6" t="n">
-        <v>1181.207134954254</v>
+        <v>1531.051599638238</v>
       </c>
       <c r="Q6" t="n">
         <v>1531.051599638238</v>
@@ -4676,22 +4676,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T6" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U6" t="n">
-        <v>1095.928434440403</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V6" t="n">
-        <v>882.216907433437</v>
+        <v>1041.558771246429</v>
       </c>
       <c r="W6" t="n">
-        <v>668.9837391697657</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="X6" t="n">
-        <v>492.6577573086585</v>
+        <v>651.9996211216503</v>
       </c>
       <c r="Y6" t="n">
-        <v>373.600255755723</v>
+        <v>492.5976614854803</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>492.7140010185257</v>
+        <v>319.827335036544</v>
       </c>
       <c r="C7" t="n">
-        <v>492.7140010185257</v>
+        <v>319.827335036544</v>
       </c>
       <c r="D7" t="n">
-        <v>492.7140010185257</v>
+        <v>319.827335036544</v>
       </c>
       <c r="E7" t="n">
-        <v>492.7140010185257</v>
+        <v>158.9165199048635</v>
       </c>
       <c r="F7" t="n">
-        <v>464.4161145446911</v>
+        <v>158.9165199048635</v>
       </c>
       <c r="G7" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H7" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I7" t="n">
         <v>31.21222238001735</v>
@@ -4755,22 +4755,22 @@
         <v>1288.946632556178</v>
       </c>
       <c r="T7" t="n">
-        <v>1049.39789353288</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="U7" t="n">
-        <v>766.5997460790038</v>
+        <v>1006.148485102302</v>
       </c>
       <c r="V7" t="n">
-        <v>492.7140010185257</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="W7" t="n">
-        <v>492.7140010185257</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="X7" t="n">
-        <v>492.7140010185257</v>
+        <v>732.2627400418237</v>
       </c>
       <c r="Y7" t="n">
-        <v>492.7140010185257</v>
+        <v>507.5270414305884</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1166.517402081457</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="C8" t="n">
-        <v>1166.517402081457</v>
+        <v>736.2144366717104</v>
       </c>
       <c r="D8" t="n">
-        <v>772.4236851620456</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="E8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="F8" t="n">
-        <v>378.3299682426345</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="G8" t="n">
-        <v>31.21222238001735</v>
+        <v>342.1207197522994</v>
       </c>
       <c r="H8" t="n">
         <v>31.21222238001735</v>
@@ -4807,22 +4807,22 @@
         <v>31.21222238001735</v>
       </c>
       <c r="K8" t="n">
-        <v>31.21222238001735</v>
+        <v>80.69635634743145</v>
       </c>
       <c r="L8" t="n">
-        <v>417.4634743327321</v>
+        <v>466.9476083001462</v>
       </c>
       <c r="M8" t="n">
-        <v>788.1086150954382</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="N8" t="n">
-        <v>788.1086150954382</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="O8" t="n">
-        <v>1174.359867048153</v>
+        <v>853.1988602528609</v>
       </c>
       <c r="P8" t="n">
-        <v>1560.611119000868</v>
+        <v>1239.450112205576</v>
       </c>
       <c r="Q8" t="n">
         <v>1560.611119000868</v>
@@ -4831,25 +4831,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S8" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T8" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="U8" t="n">
-        <v>1560.611119000868</v>
+        <v>1203.123559741827</v>
       </c>
       <c r="V8" t="n">
-        <v>1560.611119000868</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="W8" t="n">
-        <v>1560.611119000868</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="X8" t="n">
-        <v>1560.611119000868</v>
+        <v>853.2860050783079</v>
       </c>
       <c r="Y8" t="n">
-        <v>1166.517402081457</v>
+        <v>853.2860050783079</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>689.2944728867919</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C9" t="n">
-        <v>555.2994016357376</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D9" t="n">
-        <v>438.40224385513</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="E9" t="n">
-        <v>317.909427847458</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="F9" t="n">
-        <v>208.9495480299626</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="G9" t="n">
-        <v>101.9594353443013</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="H9" t="n">
-        <v>31.21222238001735</v>
+        <v>46.45488766386691</v>
       </c>
       <c r="I9" t="n">
         <v>31.21222238001735</v>
@@ -4889,46 +4889,46 @@
         <v>610.2763318953653</v>
       </c>
       <c r="L9" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M9" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N9" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O9" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P9" t="n">
-        <v>1181.207134954254</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q9" t="n">
-        <v>1531.051599638238</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R9" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S9" t="n">
-        <v>1452.621109115176</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="T9" t="n">
-        <v>1293.279245302185</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U9" t="n">
-        <v>1095.928434440403</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V9" t="n">
-        <v>1095.928434440403</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W9" t="n">
-        <v>1095.928434440403</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X9" t="n">
-        <v>988.9994651585486</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.5975055223786</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>909.8318518552715</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C10" t="n">
-        <v>738.738479416988</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D10" t="n">
-        <v>579.2438347398979</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E10" t="n">
-        <v>418.3330196082174</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F10" t="n">
-        <v>253.7018937188087</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G10" t="n">
-        <v>86.45150264435208</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H10" t="n">
         <v>31.21222238001735</v>
@@ -4989,25 +4989,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S10" t="n">
-        <v>1560.611119000868</v>
+        <v>1518.949923414074</v>
       </c>
       <c r="T10" t="n">
-        <v>1560.611119000868</v>
+        <v>1279.401184390777</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.611119000868</v>
+        <v>996.6030369369007</v>
       </c>
       <c r="V10" t="n">
-        <v>1560.611119000868</v>
+        <v>722.7172918764227</v>
       </c>
       <c r="W10" t="n">
-        <v>1560.611119000868</v>
+        <v>443.647627385297</v>
       </c>
       <c r="X10" t="n">
-        <v>1322.267256860551</v>
+        <v>443.647627385297</v>
       </c>
       <c r="Y10" t="n">
-        <v>1097.531558249316</v>
+        <v>218.9119287740617</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.21222238001735</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="C11" t="n">
         <v>31.21222238001735</v>
@@ -5047,46 +5047,46 @@
         <v>31.21222238001735</v>
       </c>
       <c r="L11" t="n">
-        <v>417.4634743327321</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="M11" t="n">
-        <v>803.7147262854468</v>
+        <v>401.8573631427234</v>
       </c>
       <c r="N11" t="n">
-        <v>812.642214563296</v>
+        <v>788.1086150954382</v>
       </c>
       <c r="O11" t="n">
-        <v>1198.893466516011</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P11" t="n">
-        <v>1198.893466516011</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q11" t="n">
-        <v>1520.054473311303</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="R11" t="n">
         <v>1560.611119000868</v>
       </c>
       <c r="S11" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T11" t="n">
-        <v>1560.611119000868</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="U11" t="n">
-        <v>1552.99751174719</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="V11" t="n">
-        <v>1203.159957083671</v>
+        <v>1213.49337313825</v>
       </c>
       <c r="W11" t="n">
+        <v>1213.49337313825</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1213.49337313825</v>
+      </c>
+      <c r="Y11" t="n">
         <v>819.3996562188394</v>
-      </c>
-      <c r="X11" t="n">
-        <v>425.3059392994284</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>501.6501021419004</v>
+        <v>300.9427749225932</v>
       </c>
       <c r="C12" t="n">
-        <v>367.6550308908461</v>
+        <v>166.9477036715389</v>
       </c>
       <c r="D12" t="n">
-        <v>367.6550308908461</v>
+        <v>50.05054589093136</v>
       </c>
       <c r="E12" t="n">
-        <v>247.1622148831741</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F12" t="n">
-        <v>138.2023350656787</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G12" t="n">
         <v>31.21222238001735</v>
@@ -5123,22 +5123,22 @@
         <v>224.0250799426506</v>
       </c>
       <c r="K12" t="n">
-        <v>224.0250799426506</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L12" t="n">
-        <v>224.0250799426506</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M12" t="n">
-        <v>610.2763318953653</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N12" t="n">
-        <v>996.52758384808</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O12" t="n">
-        <v>1382.778835800795</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P12" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q12" t="n">
         <v>1560.611119000868</v>
@@ -5150,22 +5150,22 @@
         <v>1560.611119000868</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.611119000868</v>
+        <v>1401.269255187876</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.260308139086</v>
+        <v>1203.918444326094</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.54878113212</v>
+        <v>990.2069173191283</v>
       </c>
       <c r="W12" t="n">
-        <v>936.3156128684487</v>
+        <v>776.973749055457</v>
       </c>
       <c r="X12" t="n">
-        <v>759.9896310073416</v>
+        <v>600.6477671943499</v>
       </c>
       <c r="Y12" t="n">
-        <v>600.5876713711716</v>
+        <v>441.2458075581799</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.546072681154</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="C13" t="n">
-        <v>949.4527002428704</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="D13" t="n">
-        <v>789.9580555657803</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="E13" t="n">
-        <v>629.0472404340999</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="F13" t="n">
-        <v>464.4161145446911</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G13" t="n">
-        <v>297.1657234702345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H13" t="n">
-        <v>147.5582682756912</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I13" t="n">
         <v>31.21222238001735</v>
@@ -5226,25 +5226,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S13" t="n">
-        <v>1560.611119000868</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T13" t="n">
-        <v>1560.611119000868</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U13" t="n">
-        <v>1560.611119000868</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V13" t="n">
-        <v>1560.611119000868</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W13" t="n">
-        <v>1560.611119000868</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X13" t="n">
-        <v>1532.981477686434</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="Y13" t="n">
-        <v>1308.245779075198</v>
+        <v>31.21222238001735</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>1166.517402081457</v>
       </c>
       <c r="C14" t="n">
-        <v>1166.517402081457</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="D14" t="n">
-        <v>1166.517402081457</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="E14" t="n">
-        <v>772.4236851620456</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="F14" t="n">
-        <v>378.3299682426345</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="G14" t="n">
         <v>31.21222238001735</v>
@@ -5278,25 +5278,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J14" t="n">
-        <v>285.3976938477716</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="K14" t="n">
-        <v>285.3976938477716</v>
+        <v>417.4634743327321</v>
       </c>
       <c r="L14" t="n">
-        <v>285.3976938477716</v>
+        <v>803.7147262854468</v>
       </c>
       <c r="M14" t="n">
-        <v>285.3976938477716</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="N14" t="n">
-        <v>671.6489458004863</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="O14" t="n">
-        <v>1057.900197753201</v>
+        <v>1174.359867048153</v>
       </c>
       <c r="P14" t="n">
-        <v>1444.151449705916</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="Q14" t="n">
         <v>1560.611119000868</v>
@@ -5323,7 +5323,7 @@
         <v>1560.611119000868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1166.517402081457</v>
+        <v>1560.611119000868</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>300.9427749225932</v>
+        <v>511.5571472368467</v>
       </c>
       <c r="C15" t="n">
-        <v>300.9427749225932</v>
+        <v>377.5620759857924</v>
       </c>
       <c r="D15" t="n">
         <v>260.6649182051848</v>
@@ -5357,25 +5357,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J15" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K15" t="n">
-        <v>417.4634743327321</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="L15" t="n">
-        <v>788.1086150954382</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.359867048153</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="N15" t="n">
-        <v>1174.359867048153</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="O15" t="n">
-        <v>1174.359867048153</v>
+        <v>824.5154023641696</v>
       </c>
       <c r="P15" t="n">
-        <v>1560.611119000868</v>
+        <v>1210.766654316884</v>
       </c>
       <c r="Q15" t="n">
         <v>1560.611119000868</v>
@@ -5384,25 +5384,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S15" t="n">
-        <v>1560.611119000868</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="T15" t="n">
-        <v>1401.269255187876</v>
+        <v>1293.279245302185</v>
       </c>
       <c r="U15" t="n">
-        <v>1203.918444326094</v>
+        <v>1095.928434440403</v>
       </c>
       <c r="V15" t="n">
-        <v>990.2069173191283</v>
+        <v>882.216907433437</v>
       </c>
       <c r="W15" t="n">
-        <v>776.973749055457</v>
+        <v>882.216907433437</v>
       </c>
       <c r="X15" t="n">
-        <v>600.6477671943499</v>
+        <v>705.8909255723297</v>
       </c>
       <c r="Y15" t="n">
-        <v>441.2458075581799</v>
+        <v>651.8601798724333</v>
       </c>
     </row>
     <row r="16">
@@ -5460,25 +5460,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R16" t="n">
-        <v>1475.338400676267</v>
+        <v>1560.611119000868</v>
       </c>
       <c r="S16" t="n">
-        <v>1288.946632556178</v>
+        <v>1374.219350880778</v>
       </c>
       <c r="T16" t="n">
-        <v>1049.39789353288</v>
+        <v>1134.67061185748</v>
       </c>
       <c r="U16" t="n">
-        <v>766.5997460790038</v>
+        <v>851.872464403604</v>
       </c>
       <c r="V16" t="n">
-        <v>492.7140010185257</v>
+        <v>577.986719343126</v>
       </c>
       <c r="W16" t="n">
-        <v>213.6443365274001</v>
+        <v>298.9170548520003</v>
       </c>
       <c r="X16" t="n">
-        <v>31.21222238001735</v>
+        <v>60.5731927116837</v>
       </c>
       <c r="Y16" t="n">
         <v>31.21222238001735</v>
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.76508562960203</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>773.7039950481965</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L17" t="n">
-        <v>537.7254774811263</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M17" t="n">
-        <v>1054.568412147451</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N17" t="n">
-        <v>1571.411346813777</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O17" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P17" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5545,22 +5545,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T17" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U17" t="n">
-        <v>1695.912714533713</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V17" t="n">
-        <v>1346.075159870193</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W17" t="n">
-        <v>962.314859005362</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="X17" t="n">
-        <v>561.6714611743146</v>
+        <v>1089.945929615741</v>
       </c>
       <c r="Y17" t="n">
-        <v>160.7347881224047</v>
+        <v>1089.945929615741</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>675.164428100838</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N18" t="n">
-        <v>675.164428100838</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O18" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P18" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q18" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R18" t="n">
         <v>2088.254281480102</v>
@@ -5627,19 +5627,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.75045561901</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C19" t="n">
-        <v>882.6570831807262</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D19" t="n">
-        <v>723.1624385036362</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E19" t="n">
-        <v>562.2516233719557</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F19" t="n">
-        <v>397.620497482547</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G19" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5697,28 +5697,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R19" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T19" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U19" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V19" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W19" t="n">
-        <v>1292.094317759326</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X19" t="n">
-        <v>1053.75045561901</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y19" t="n">
-        <v>1053.75045561901</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>456.1053011127053</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="C20" t="n">
-        <v>456.1053011127053</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="D20" t="n">
-        <v>456.1053011127053</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="E20" t="n">
-        <v>41.76508562960203</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F20" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>537.7254774811263</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>1054.568412147451</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N20" t="n">
-        <v>1571.411346813777</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O20" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P20" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V20" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W20" t="n">
-        <v>1667.906551660152</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X20" t="n">
-        <v>1267.263153829105</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y20" t="n">
-        <v>866.3264807771948</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161363</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.600856265082</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844745</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768025</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
         <v>234.5779431922353</v>
@@ -5840,16 +5840,16 @@
         <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
-        <v>1221.566882129793</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517229</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.76508562960203</v>
+        <v>345.0118010217461</v>
       </c>
       <c r="C22" t="n">
-        <v>41.76508562960203</v>
+        <v>345.0118010217461</v>
       </c>
       <c r="D22" t="n">
-        <v>41.76508562960203</v>
+        <v>185.5171563446561</v>
       </c>
       <c r="E22" t="n">
-        <v>41.76508562960203</v>
+        <v>185.5171563446561</v>
       </c>
       <c r="F22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5934,28 +5934,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T22" t="n">
-        <v>1059.950756782464</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U22" t="n">
-        <v>777.1526093285881</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V22" t="n">
-        <v>559.1786122610442</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="W22" t="n">
-        <v>280.1089477699186</v>
+        <v>583.3556631620627</v>
       </c>
       <c r="X22" t="n">
-        <v>41.76508562960203</v>
+        <v>345.0118010217461</v>
       </c>
       <c r="Y22" t="n">
-        <v>41.76508562960203</v>
+        <v>345.0118010217461</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1695.988587952916</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="C23" t="n">
-        <v>1285.863997266186</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="D23" t="n">
-        <v>1285.863997266186</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="E23" t="n">
-        <v>871.5237817830823</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="F23" t="n">
-        <v>450.4933697367699</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G23" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L23" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M23" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N23" t="n">
-        <v>1592.293889628578</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q23" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R23" t="n">
         <v>2088.254281480102</v>
@@ -6019,22 +6019,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U23" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V23" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W23" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X23" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y23" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="24">
@@ -6044,46 +6044,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C24" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D24" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E24" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F24" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G24" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H24" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>508.1659581184963</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M24" t="n">
-        <v>1025.008892784821</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N24" t="n">
+        <v>1207.227134123859</v>
+      </c>
+      <c r="O24" t="n">
         <v>1541.851827451147</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2058.694762117472</v>
       </c>
       <c r="P24" t="n">
         <v>2058.694762117472</v>
@@ -6104,16 +6104,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W24" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X24" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C25" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D25" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E25" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F25" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1485.891263925851</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U25" t="n">
-        <v>1485.891263925851</v>
+        <v>1228.893428371041</v>
       </c>
       <c r="V25" t="n">
-        <v>1485.891263925851</v>
+        <v>955.0076833105632</v>
       </c>
       <c r="W25" t="n">
-        <v>1485.891263925851</v>
+        <v>675.9380188194375</v>
       </c>
       <c r="X25" t="n">
-        <v>1485.891263925851</v>
+        <v>437.5941566791208</v>
       </c>
       <c r="Y25" t="n">
-        <v>1318.798642324783</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>352.673583001884</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="C26" t="n">
-        <v>352.673583001884</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="D26" t="n">
-        <v>352.673583001884</v>
+        <v>767.0137984849873</v>
       </c>
       <c r="E26" t="n">
         <v>352.673583001884</v>
@@ -6220,34 +6220,34 @@
         <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
-        <v>1075.450954962252</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N26" t="n">
-        <v>1075.450954962252</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O26" t="n">
-        <v>1571.411346813777</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q26" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6256,22 +6256,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T26" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U26" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V26" t="n">
-        <v>1123.868675817052</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W26" t="n">
-        <v>740.1083749522209</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X26" t="n">
-        <v>740.1083749522209</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y26" t="n">
-        <v>352.673583001884</v>
+        <v>1123.868675817053</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
@@ -6311,22 +6311,22 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>751.4208778585604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.263812524885</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N27" t="n">
-        <v>1785.106747191211</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P27" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6338,19 +6338,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U27" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>795.3744376030463</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C28" t="n">
-        <v>795.3744376030463</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>635.8797929259563</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6408,28 +6408,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R28" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S28" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1207.809842608326</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U28" t="n">
-        <v>1207.809842608326</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V28" t="n">
-        <v>1207.809842608326</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W28" t="n">
-        <v>1207.809842608326</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X28" t="n">
-        <v>1207.809842608326</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.0741439970907</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1294.272800950781</v>
+        <v>1270.180348417853</v>
       </c>
       <c r="C29" t="n">
-        <v>884.148210264051</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="D29" t="n">
-        <v>884.148210264051</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E29" t="n">
-        <v>469.8079947809478</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F29" t="n">
-        <v>48.7775827346353</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G29" t="n">
-        <v>48.7775827346353</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L29" t="n">
-        <v>692.8507596625946</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M29" t="n">
-        <v>692.8507596625946</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N29" t="n">
-        <v>1209.69369432892</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O29" t="n">
-        <v>1209.69369432892</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P29" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q29" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R29" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.49398061527</v>
+        <v>1671.117021469763</v>
       </c>
       <c r="X29" t="n">
-        <v>1704.49398061527</v>
+        <v>1671.117021469763</v>
       </c>
       <c r="Y29" t="n">
-        <v>1704.49398061527</v>
+        <v>1270.180348417853</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C30" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D30" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E30" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F30" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G30" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L30" t="n">
-        <v>1192.007362767163</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M30" t="n">
-        <v>1192.007362767163</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N30" t="n">
-        <v>1192.007362767163</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="O30" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R30" t="n">
         <v>2088.254281480102</v>
@@ -6578,16 +6578,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V30" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W30" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X30" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y30" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>862.4253276531883</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="C31" t="n">
-        <v>862.4253276531883</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="D31" t="n">
-        <v>800.5109188153651</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="E31" t="n">
-        <v>639.6001036836846</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>119.0440298960003</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6645,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S31" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T31" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U31" t="n">
-        <v>862.4253276531883</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V31" t="n">
-        <v>862.4253276531883</v>
+        <v>786.0650117219859</v>
       </c>
       <c r="W31" t="n">
-        <v>862.4253276531883</v>
+        <v>506.9953472308603</v>
       </c>
       <c r="X31" t="n">
-        <v>862.4253276531883</v>
+        <v>268.6514850905436</v>
       </c>
       <c r="Y31" t="n">
-        <v>862.4253276531883</v>
+        <v>268.6514850905436</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>456.1053011127053</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="C32" t="n">
-        <v>456.1053011127053</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="D32" t="n">
-        <v>456.1053011127053</v>
+        <v>942.542491449291</v>
       </c>
       <c r="E32" t="n">
-        <v>41.76508562960203</v>
+        <v>528.2022759661877</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960203</v>
+        <v>528.2022759661877</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>692.8507596625946</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L32" t="n">
-        <v>692.8507596625946</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M32" t="n">
-        <v>692.8507596625946</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N32" t="n">
-        <v>692.8507596625946</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O32" t="n">
-        <v>1209.69369432892</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P32" t="n">
-        <v>1726.536628995245</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6730,22 +6730,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V32" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W32" t="n">
-        <v>1473.706230480572</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X32" t="n">
-        <v>1073.062832649524</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="Y32" t="n">
-        <v>672.1261595976142</v>
+        <v>1347.00642135623</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>537.7254774811263</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M33" t="n">
-        <v>1054.568412147451</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N33" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O33" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P33" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q33" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6815,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1109.57853079593</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="C34" t="n">
-        <v>960.0055634924552</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="D34" t="n">
-        <v>800.5109188153651</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="E34" t="n">
-        <v>639.6001036836846</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F34" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G34" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
         <v>470.2970630371111</v>
@@ -6882,28 +6882,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V34" t="n">
-        <v>1297.278237189974</v>
+        <v>1025.613750745284</v>
       </c>
       <c r="W34" t="n">
-        <v>1297.278237189974</v>
+        <v>746.5440862541582</v>
       </c>
       <c r="X34" t="n">
-        <v>1297.278237189974</v>
+        <v>533.1412472705574</v>
       </c>
       <c r="Y34" t="n">
-        <v>1297.278237189974</v>
+        <v>533.1412472705574</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>902.9139097323131</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="C35" t="n">
-        <v>492.7893190455832</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="D35" t="n">
-        <v>88.32538913864369</v>
+        <v>1274.395973214227</v>
       </c>
       <c r="E35" t="n">
-        <v>88.32538913864369</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F35" t="n">
-        <v>88.32538913864369</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G35" t="n">
-        <v>88.32538913864369</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L35" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M35" t="n">
-        <v>1846.479361096332</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N35" t="n">
-        <v>2088.254281480102</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O35" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P35" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q35" t="n">
         <v>2088.254281480102</v>
@@ -6964,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="W35" t="n">
-        <v>1704.49398061527</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="X35" t="n">
-        <v>1303.850582784223</v>
+        <v>1380.929167557543</v>
       </c>
       <c r="Y35" t="n">
-        <v>902.9139097323131</v>
+        <v>1380.929167557543</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C36" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D36" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E36" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F36" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G36" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>497.5713418949007</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>1014.414276561226</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.257211227551</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O36" t="n">
-        <v>2048.100145893876</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7052,16 +7052,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V36" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W36" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X36" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y36" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1131.098935930739</v>
+        <v>212.8584580678856</v>
       </c>
       <c r="C37" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
         <v>470.2970630371111</v>
@@ -7125,22 +7125,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1571.163982250452</v>
+        <v>1511.691575824917</v>
       </c>
       <c r="U37" t="n">
-        <v>1571.163982250452</v>
+        <v>1228.893428371041</v>
       </c>
       <c r="V37" t="n">
-        <v>1571.163982250452</v>
+        <v>955.0076833105632</v>
       </c>
       <c r="W37" t="n">
-        <v>1571.163982250452</v>
+        <v>675.9380188194375</v>
       </c>
       <c r="X37" t="n">
-        <v>1543.534340936018</v>
+        <v>437.5941566791208</v>
       </c>
       <c r="Y37" t="n">
-        <v>1318.798642324783</v>
+        <v>212.8584580678856</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.129690793372</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D38" t="n">
-        <v>1273.665760886433</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E38" t="n">
-        <v>859.3255454033292</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F38" t="n">
-        <v>438.2951333570168</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G38" t="n">
-        <v>438.2951333570168</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H38" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>733.4074053521595</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>733.4074053521595</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="M38" t="n">
-        <v>733.4074053521595</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N38" t="n">
-        <v>733.4074053521595</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O38" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P38" t="n">
         <v>1767.09327468481</v>
@@ -7201,25 +7201,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W38" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X38" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y38" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N39" t="n">
-        <v>2048.100145893876</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1014.752890035065</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C40" t="n">
-        <v>843.6595175967811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D40" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E40" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F40" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7365,19 +7365,19 @@
         <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>1571.163982250452</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V40" t="n">
-        <v>1571.163982250452</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W40" t="n">
-        <v>1571.163982250452</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.820120110135</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y40" t="n">
-        <v>1202.452596429109</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>142.8551754043043</v>
+        <v>951.1853479028</v>
       </c>
       <c r="C41" t="n">
-        <v>41.76508562960203</v>
+        <v>951.1853479028</v>
       </c>
       <c r="D41" t="n">
-        <v>41.76508562960203</v>
+        <v>951.1853479028</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960203</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L41" t="n">
-        <v>295.9505570973564</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M41" t="n">
-        <v>295.9505570973564</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N41" t="n">
-        <v>692.8507596625946</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O41" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P41" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S41" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.416726816582</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W41" t="n">
-        <v>1354.656425951751</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X41" t="n">
-        <v>954.0130281207037</v>
+        <v>1073.062832649525</v>
       </c>
       <c r="Y41" t="n">
-        <v>553.0763550687938</v>
+        <v>1073.062832649525</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>1014.414276561226</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O42" t="n">
-        <v>1221.566882129793</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P42" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.76508562960203</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="C43" t="n">
-        <v>41.76508562960203</v>
+        <v>201.259730306692</v>
       </c>
       <c r="D43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T43" t="n">
-        <v>1340.598203386633</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U43" t="n">
-        <v>1057.800055932758</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V43" t="n">
-        <v>783.9143108722797</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W43" t="n">
-        <v>504.844646381154</v>
+        <v>610.6969648852921</v>
       </c>
       <c r="X43" t="n">
-        <v>266.5007842408373</v>
+        <v>372.3531027449756</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.76508562960203</v>
+        <v>372.3531027449756</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1542.752026609713</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="C44" t="n">
-        <v>1132.627435922983</v>
+        <v>1063.485050816083</v>
       </c>
       <c r="D44" t="n">
-        <v>728.1635060160438</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="E44" t="n">
-        <v>728.1635060160438</v>
+        <v>860.0557577311233</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L44" t="n">
-        <v>812.7934917636815</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M44" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N44" t="n">
-        <v>1329.636426430007</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O44" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
         <v>2088.254281480102</v>
@@ -7678,22 +7678,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1952.973206274203</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U44" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V44" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W44" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X44" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y44" t="n">
-        <v>1952.973206274203</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G45" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
         <v>234.5779431922353</v>
@@ -7733,22 +7733,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N45" t="n">
-        <v>1192.007362767163</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O45" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P45" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
         <v>2088.254281480102</v>
@@ -7763,16 +7763,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X45" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7851,7 +7851,7 @@
         <v>257.5178240813579</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>479.289169423434</v>
+        <v>139.1203633776758</v>
       </c>
       <c r="L2" t="n">
-        <v>278.8691500349403</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>483.342555376</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8057,7 +8057,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>445.9785625348323</v>
@@ -8066,13 +8066,13 @@
         <v>446.2673035610659</v>
       </c>
       <c r="M3" t="n">
-        <v>447.7170634886343</v>
+        <v>237.1928526273799</v>
       </c>
       <c r="N3" t="n">
-        <v>427.5824244671906</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>479.289169423434</v>
+        <v>272.5201416453126</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M5" t="n">
-        <v>483.4430042072623</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>102.2074405529036</v>
+        <v>483.342555376</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
@@ -8239,7 +8239,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,22 +8300,22 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L6" t="n">
-        <v>242.6595249281969</v>
+        <v>446.2673035610659</v>
       </c>
       <c r="M6" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>202.9638619164196</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>447.9042587502169</v>
       </c>
       <c r="P6" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8455,25 +8455,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>139.1203633776758</v>
       </c>
       <c r="L8" t="n">
         <v>485.6381778130617</v>
       </c>
       <c r="M8" t="n">
-        <v>467.6792555304859</v>
+        <v>483.4430042072623</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
         <v>483.8021430311011</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8537,10 +8537,10 @@
         <v>445.9785625348323</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M9" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
@@ -8549,13 +8549,13 @@
         <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>240.8046361201516</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L11" t="n">
-        <v>485.6381778130617</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>483.4430042072623</v>
+        <v>467.6792555304859</v>
       </c>
       <c r="N11" t="n">
-        <v>101.9299556837397</v>
+        <v>483.0650705068362</v>
       </c>
       <c r="O11" t="n">
         <v>483.342555376</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>445.9785625348323</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M12" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>443.3461731439669</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>447.9042587502169</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>233.8882038917663</v>
+        <v>444.4124147530206</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>59.00019910540541</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>479.289169423434</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>467.6792555304859</v>
       </c>
       <c r="N14" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>483.8021430311011</v>
       </c>
       <c r="Q14" t="n">
-        <v>207.6698339900124</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9005,16 +9005,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
         <v>445.9785625348323</v>
       </c>
       <c r="L15" t="n">
-        <v>430.5035548842895</v>
+        <v>272.5176252944898</v>
       </c>
       <c r="M15" t="n">
-        <v>447.7170634886343</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9026,7 +9026,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L17" t="n">
-        <v>596.4554908421622</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770623</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>502.6011371814505</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700255</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>590.1064824525346</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,22 +9485,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>72.04887768380517</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O21" t="n">
         <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9637,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L23" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O23" t="n">
-        <v>553.1935596277623</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P23" t="n">
         <v>93.64936328088416</v>
@@ -9661,7 +9661,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>527.2265162238735</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>395.7562197346342</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764447</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O26" t="n">
-        <v>594.1598684051006</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,25 +9959,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>502.6011371814508</v>
       </c>
       <c r="N27" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O27" t="n">
-        <v>363.9611095948396</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L29" t="n">
-        <v>496.3946935832874</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q29" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R29" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>363.9611095948396</v>
       </c>
       <c r="P30" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>490.0456851936598</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
@@ -10360,19 +10360,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>534.7878950544006</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>617.5489684328703</v>
+        <v>272.0504334731807</v>
       </c>
       <c r="M35" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
-        <v>337.1293820533567</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P35" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>87.31214281472352</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10825,22 +10825,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>531.011993970998</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>537.361002360626</v>
       </c>
       <c r="M38" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N38" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10901,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>98.31121191537929</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11062,28 +11062,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N41" t="n">
-        <v>493.821586277062</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,16 +11138,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>266.8093398682832</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
@@ -11156,10 +11156,10 @@
         <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>576.3232053728292</v>
+        <v>422.1224761037308</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N44" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O44" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051008</v>
       </c>
       <c r="P44" t="n">
-        <v>494.5586588013268</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>562.8045877599694</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
         <v>57.56428373841742</v>
@@ -11390,16 +11390,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22552,10 +22552,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>311.262609026964</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>20.04403357805535</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>34.54150097890036</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -22609,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22634,19 +22634,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,16 +22676,16 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>158.7936483093277</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -22725,7 +22725,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22767,13 +22767,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>41.88054861921404</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>208.4957071359558</v>
       </c>
     </row>
     <row r="5">
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.96618811762767</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>10.26651085765315</v>
+        <v>56.77272220387891</v>
       </c>
       <c r="E5" t="n">
         <v>20.04403357805535</v>
       </c>
       <c r="F5" t="n">
-        <v>73.17353952185829</v>
+        <v>26.66732817563241</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>14.48822151587922</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>119.1548770120947</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22916,7 +22916,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>39.94101350240209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -22950,19 +22950,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.9699070214184</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>39.15063261411433</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23010,7 +23010,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,22 +23023,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>290.122492057331</v>
       </c>
       <c r="D8" t="n">
         <v>10.26651085765315</v>
       </c>
       <c r="E8" t="n">
-        <v>20.04403357805535</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>60.9944328621051</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23105,22 +23105,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596223</v>
+        <v>5.45086683495116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -23159,13 +23159,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>68.70304245346006</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23181,22 +23181,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>93.42449318090654</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23229,22 +23229,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>143.2832668079636</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>15.87056502964566</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>10.2661152624589</v>
       </c>
       <c r="U11" t="n">
-        <v>246.9524156419444</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>6.484184102520089</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>6.774526571173908</v>
@@ -23336,22 +23336,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40.95180877225226</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>100.6379475717904</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H12" t="n">
         <v>70.03974083464111</v>
@@ -23390,7 +23390,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T12" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>193.4209809967732</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>15.96618811762767</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>62.37677637587154</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
@@ -23509,7 +23509,7 @@
         <v>26.66732817563241</v>
       </c>
       <c r="G14" t="n">
-        <v>60.9944328621051</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23563,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>6.774526571173908</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23576,10 +23576,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>75.85310805256714</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>106.9101097868343</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23636,13 +23636,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>104.3175017969108</v>
       </c>
     </row>
     <row r="16">
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967732</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3389623999699</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>92.94382955799387</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23743,13 +23743,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23892,25 +23892,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>76.57499550861152</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>55.35263051300493</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,13 +23977,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>210.6731529704944</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>307.7994123985592</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>218.268332157518</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>20.67026462261117</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>55.35263051300481</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>303.9724007072713</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24259,16 +24259,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>178.2755692717854</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.06664624006515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24448,10 +24448,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>47.13296204912535</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.36686229055738</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>146.3804949676035</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>300.8570402645763</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
@@ -24742,13 +24742,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>320.8694941123974</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,22 +24843,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>96.60443348087411</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>38.67643061298286</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>192.2583179677848</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.6410012660961</v>
+        <v>230.8675952314355</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>21.30520108346107</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>24.69161292514872</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25156,25 +25156,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>294.9514282079873</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>261.704711924608</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,19 +25365,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>178.2755692717853</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7229102045162108</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>13.0765198219031</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25605,19 +25605,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.42449318090686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>285.4602579685873</v>
       </c>
       <c r="C41" t="n">
-        <v>305.9441559029073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>198.1069170183358</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>199.0242904537604</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>141.9266730093681</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884632</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>477544.6330018536</v>
+        <v>477544.6330018535</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>477544.6330018537</v>
+        <v>477544.6330018535</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>477544.6330018535</v>
+        <v>477544.6330018536</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>477544.6330018536</v>
+        <v>477544.6330018535</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>477544.6330018535</v>
+        <v>477544.6330018536</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>571352.6897686904</v>
+        <v>571352.6897686903</v>
       </c>
     </row>
     <row r="15">
@@ -26322,25 +26322,25 @@
         <v>111322.3517109386</v>
       </c>
       <c r="E2" t="n">
-        <v>111322.3517109386</v>
+        <v>111322.3517109387</v>
       </c>
       <c r="F2" t="n">
-        <v>111322.3517109386</v>
+        <v>111322.3517109387</v>
       </c>
       <c r="G2" t="n">
         <v>133181.3099302736</v>
       </c>
       <c r="H2" t="n">
-        <v>133181.3099302737</v>
+        <v>133181.3099302736</v>
       </c>
       <c r="I2" t="n">
         <v>133181.3099302736</v>
       </c>
       <c r="J2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="K2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="L2" t="n">
         <v>133181.3099302737</v>
@@ -26349,13 +26349,13 @@
         <v>133181.3099302736</v>
       </c>
       <c r="N2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="O2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
       <c r="P2" t="n">
-        <v>133181.3099302736</v>
+        <v>133181.3099302737</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>36154.76904703023</v>
+        <v>36154.76904703026</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>31744.46367344755</v>
+        <v>31744.46367344758</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32593.54773220027</v>
+        <v>32593.54773220026</v>
       </c>
       <c r="C4" t="n">
         <v>32593.54773220027</v>
@@ -26426,13 +26426,13 @@
         <v>32593.54773220026</v>
       </c>
       <c r="E4" t="n">
-        <v>32593.54773220026</v>
+        <v>32593.54773220027</v>
       </c>
       <c r="F4" t="n">
         <v>32593.54773220027</v>
       </c>
       <c r="G4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="H4" t="n">
         <v>39061.35498003941</v>
@@ -26441,25 +26441,25 @@
         <v>39061.35498003941</v>
       </c>
       <c r="J4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="K4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="L4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="M4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="N4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="O4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="P4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-109369.2550383068</v>
+        <v>-110202.9193135532</v>
       </c>
       <c r="C6" t="n">
-        <v>21379.91496992519</v>
+        <v>20546.25069467875</v>
       </c>
       <c r="D6" t="n">
-        <v>21379.91496992519</v>
+        <v>20546.25069467875</v>
       </c>
       <c r="E6" t="n">
-        <v>55007.51496992516</v>
+        <v>54173.85069467877</v>
       </c>
       <c r="F6" t="n">
-        <v>55007.51496992519</v>
+        <v>54173.8506946788</v>
       </c>
       <c r="G6" t="n">
-        <v>26223.72082470641</v>
+        <v>25546.19196531232</v>
       </c>
       <c r="H6" t="n">
-        <v>62378.4898717367</v>
+        <v>61700.96101234262</v>
       </c>
       <c r="I6" t="n">
-        <v>62378.48987173665</v>
+        <v>61700.96101234262</v>
       </c>
       <c r="J6" t="n">
-        <v>-39702.64403322911</v>
+        <v>-40380.17289262312</v>
       </c>
       <c r="K6" t="n">
-        <v>62378.48987173665</v>
+        <v>61700.96101234265</v>
       </c>
       <c r="L6" t="n">
-        <v>62378.4898717367</v>
+        <v>61700.96101234268</v>
       </c>
       <c r="M6" t="n">
-        <v>62378.48987173665</v>
+        <v>61700.96101234262</v>
       </c>
       <c r="N6" t="n">
-        <v>62378.48987173665</v>
+        <v>61700.96101234265</v>
       </c>
       <c r="O6" t="n">
-        <v>30634.02619828912</v>
+        <v>29956.49733889507</v>
       </c>
       <c r="P6" t="n">
-        <v>62378.48987173667</v>
+        <v>61700.96101234265</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>390.1527797502169</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>131.9107906198086</v>
+        <v>131.9107906198087</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>49.98397370445868</v>
+      </c>
+      <c r="L2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L2" t="n">
-        <v>183.3837519720955</v>
-      </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>390.1527797502169</v>
@@ -34786,13 +34786,13 @@
         <v>390.1527797502169</v>
       </c>
       <c r="M3" t="n">
+        <v>179.6285688889625</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N3" t="n">
-        <v>374.3890310734406</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>183.3837519720955</v>
+      </c>
+      <c r="L5" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N5" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.017664927120512</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -34959,7 +34959,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L6" t="n">
-        <v>186.5450011173479</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>149.7704685226696</v>
+      </c>
+      <c r="O6" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>49.98397370445868</v>
       </c>
       <c r="L8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="M8" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>390.1527797502169</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>186.5450011173479</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>374.3890310734405</v>
+      </c>
+      <c r="N11" t="n">
         <v>390.1527797502169</v>
-      </c>
-      <c r="M11" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="N11" t="n">
-        <v>9.017664927120396</v>
       </c>
       <c r="O11" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="N12" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="O12" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P12" t="n">
-        <v>179.6285688889625</v>
-      </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>374.3890310734405</v>
       </c>
       <c r="N14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="Q14" t="n">
-        <v>117.6360295908603</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L15" t="n">
-        <v>374.3890310734405</v>
+        <v>216.4031014836408</v>
       </c>
       <c r="M15" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>400.909295520443</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>445.0368534430331</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L23" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O23" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O26" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="N27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O27" t="n">
-        <v>306.2096305948396</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L29" t="n">
-        <v>400.9092955204426</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q29" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="P30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>400.9092955204426</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -37080,19 +37080,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>522.0635703700254</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="M35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>244.2170912967374</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>441.8756042977809</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>40.55973291537929</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N41" t="n">
-        <v>400.9092955204426</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>209.2450561298658</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>500.9700927793177</v>
       </c>
       <c r="P44" t="n">
-        <v>400.9092955204427</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
